--- a/results/MVSE/imdb/MVSE_imdb_<l5>WH_avg_test_mif1-63.19.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb_<l5>WH_avg_test_mif1-63.19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,7 +594,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         <v>128</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I3" t="n">
         <v>50</v>
@@ -641,32 +641,32 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="O3" t="n">
-        <v>63.19</v>
+        <v>63.12</v>
       </c>
       <c r="P3" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.45</v>
+        <v>0.76</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_36_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 1, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_33_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
@@ -722,17 +722,17 @@
         <v>0.55</v>
       </c>
       <c r="O4" t="n">
-        <v>63.12</v>
+        <v>63.05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.76</v>
+        <v>0.17</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_33_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1217,24 +1217,96 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O11" t="n">
+        <v>58.92</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_45_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.92</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O12" t="n">
         <v>58.18</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>0.06</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>0.15</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_00_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
